--- a/Outputs/1. Budget/Output Files/1000000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259233.006028634</v>
+        <v>2258381.949421973</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4895991.679432712</v>
+        <v>4895991.679432716</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963985.326485089</v>
+        <v>963985.3264850881</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>71.01467844038824</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>218.0792724223796</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>80.69325994850647</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>156.4280676246904</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>43.09198093152767</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>117.0570377807758</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.17571704845977</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>168.1666138174382</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>25.6803333063378</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>45.02278574591163</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H11" t="n">
-        <v>299.2434379445483</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T11" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0313837381858</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>35.5602953372802</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H13" t="n">
-        <v>53.70616455942298</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U13" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H14" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02761253284908</v>
+        <v>59.0276125328491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T14" t="n">
         <v>205.8994334372419</v>
@@ -1666,7 +1666,7 @@
         <v>251.0313837381846</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>48.55362072071564</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>146.5602426058027</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>31.31978745722368</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U16" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H17" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T17" t="n">
         <v>205.8994334372419</v>
@@ -1943,7 +1943,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>91.23491668511315</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.5746262759709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H20" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8994334372428</v>
+        <v>205.8994334372419</v>
       </c>
       <c r="U20" t="n">
         <v>251.0313837381846</v>
@@ -2180,7 +2180,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T22" t="n">
         <v>220.4164922362883</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>184.3442357576559</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>180.5746262759718</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H23" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T23" t="n">
         <v>205.8994334372419</v>
@@ -2417,7 +2417,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3074931070767</v>
+        <v>163.9268262373704</v>
       </c>
       <c r="T25" t="n">
         <v>220.4164922362883</v>
@@ -2535,10 +2535,10 @@
         <v>286.222913222125</v>
       </c>
       <c r="V25" t="n">
-        <v>34.29563606576671</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H26" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I26" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T26" t="n">
         <v>205.8994334372419</v>
@@ -2654,7 +2654,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I27" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.1512281977648</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.06165794823696</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S28" t="n">
-        <v>193.3074931070767</v>
+        <v>57.23580808271679</v>
       </c>
       <c r="T28" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,10 +2809,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H29" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I29" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T29" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0313837381846</v>
+        <v>251.0313837381858</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I30" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.5746262759709</v>
+        <v>180.5746262759718</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H32" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I32" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T32" t="n">
         <v>205.8994334372419</v>
@@ -3128,7 +3128,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I33" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>55.21007024102793</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.06165794823696</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S34" t="n">
         <v>193.3074931070767</v>
       </c>
       <c r="T34" t="n">
-        <v>191.0358253665812</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,10 +3283,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H35" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I35" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T35" t="n">
-        <v>205.8994334372418</v>
+        <v>205.8994334372419</v>
       </c>
       <c r="U35" t="n">
         <v>251.0313837381846</v>
@@ -3365,7 +3365,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I36" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>89.92108751449999</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.14482730314961</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T37" t="n">
         <v>220.4164922362883</v>
@@ -3483,13 +3483,13 @@
         <v>286.222913222125</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H38" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I38" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T38" t="n">
         <v>205.8994334372419</v>
@@ -3602,7 +3602,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I39" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.512968327734</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.06165794823696</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>193.3074931070767</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>180.5746262759718</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H41" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I41" t="n">
-        <v>59.02761253284908</v>
+        <v>59.027612532849</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932149</v>
       </c>
       <c r="T41" t="n">
         <v>205.8994334372418</v>
@@ -3839,7 +3839,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I42" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S43" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.4164922362883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.5746262759709</v>
+        <v>109.5916112063938</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H44" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I44" t="n">
-        <v>59.02761253284908</v>
+        <v>59.02761253284905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T44" t="n">
         <v>205.8994334372419</v>
@@ -4076,7 +4076,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I45" t="n">
-        <v>17.02994898176557</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.06165794823696</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>193.3074931070767</v>
+        <v>155.2974660309534</v>
       </c>
       <c r="T46" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U46" t="n">
-        <v>282.7956386875471</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>315.6850394389064</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>240.2744445627127</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4418,7 +4418,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>806.0490063947873</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>603.8624117535533</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>603.8624117535533</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>603.8624117535533</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>603.8624117535533</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X3" t="n">
-        <v>396.0109115480204</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.2506127830665</v>
+        <v>399.5118995681682</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>90.33569644483418</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D5" t="n">
-        <v>90.33569644483418</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>90.33569644483418</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433.7223438482202</v>
+        <v>536.8878951967741</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>660.701031422288</v>
+        <v>744.6481939617281</v>
       </c>
       <c r="X6" t="n">
-        <v>660.701031422288</v>
+        <v>744.6481939617281</v>
       </c>
       <c r="Y6" t="n">
-        <v>601.9376808682882</v>
+        <v>536.8878951967741</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>297.2027203719481</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>474.7416984028202</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
         <v>474.7416984028202</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>938.1174248981738</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>709.8938066345629</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>474.7416984028202</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>474.7416984028202</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>474.7416984028202</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>474.7416984028202</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.701876211741</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6995032767275</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1698336863371</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H11" t="n">
         <v>155.9037347524499</v>
@@ -5041,25 +5041,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5309736026616</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.25166351628</v>
+        <v>789.9182099480304</v>
       </c>
       <c r="L11" t="n">
-        <v>1806.05366097522</v>
+        <v>1583.72020740697</v>
       </c>
       <c r="M11" t="n">
-        <v>2387.785317648182</v>
+        <v>2483.584424323391</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.604825659707</v>
+        <v>3383.37738750278</v>
       </c>
       <c r="O11" t="n">
-        <v>3659.066167834896</v>
+        <v>4187.838729677969</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.980928602947</v>
+        <v>4518.172769356253</v>
       </c>
       <c r="Q11" t="n">
         <v>4718.067129459338</v>
@@ -5074,19 +5074,19 @@
         <v>4485.305403407436</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H12" t="n">
         <v>113.4818523776181</v>
@@ -5120,22 +5120,22 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J12" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K12" t="n">
-        <v>505.0170019625157</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L12" t="n">
-        <v>819.655498224686</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M12" t="n">
-        <v>1206.180650995793</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N12" t="n">
-        <v>1617.34461933501</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O12" t="n">
-        <v>1971.259527765342</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P12" t="n">
         <v>2235.974377226892</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.8249558396042</v>
+        <v>433.1239961607293</v>
       </c>
       <c r="C13" t="n">
-        <v>548.8249558396042</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="D13" t="n">
-        <v>548.8249558396042</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="E13" t="n">
-        <v>400.9118622572111</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="F13" t="n">
-        <v>254.0219147593007</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G13" t="n">
-        <v>254.0219147593007</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7732636891765</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I13" t="n">
         <v>96.27988370916803</v>
@@ -5202,49 +5202,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.786774508074</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.786774508074</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T13" t="n">
-        <v>1757.786774508074</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U13" t="n">
-        <v>1468.672720748352</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="V13" t="n">
-        <v>1468.672720748352</v>
+        <v>697.0330372984237</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.255550711391</v>
+        <v>697.0330372984237</v>
       </c>
       <c r="X13" t="n">
-        <v>951.265999813374</v>
+        <v>469.0434864004063</v>
       </c>
       <c r="Y13" t="n">
-        <v>730.4734206698439</v>
+        <v>469.0434864004063</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>458.1698336863381</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I14" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J14" t="n">
-        <v>414.5309736026616</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K14" t="n">
-        <v>1012.25166351628</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L14" t="n">
         <v>1806.05366097522</v>
       </c>
       <c r="M14" t="n">
-        <v>2387.785317648182</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N14" t="n">
-        <v>2854.604825659707</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O14" t="n">
         <v>3659.066167834896</v>
@@ -5348,7 +5348,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H15" t="n">
         <v>113.4818523776181</v>
@@ -5357,28 +5357,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J15" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K15" t="n">
-        <v>491.6819614685453</v>
+        <v>535.0554657807191</v>
       </c>
       <c r="L15" t="n">
-        <v>806.3204577307156</v>
+        <v>849.6939620428896</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.845610501822</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N15" t="n">
-        <v>1604.00957884104</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O15" t="n">
-        <v>1957.924487271372</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P15" t="n">
-        <v>2235.974377226892</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q15" t="n">
-        <v>2570.986562194853</v>
+        <v>2601.025026013057</v>
       </c>
       <c r="R15" t="n">
         <v>2601.025026013057</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.2864487285741</v>
+        <v>546.9746135323388</v>
       </c>
       <c r="C16" t="n">
-        <v>542.3502658006672</v>
+        <v>497.9305521982826</v>
       </c>
       <c r="D16" t="n">
-        <v>392.2336263883315</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="E16" t="n">
-        <v>244.3205328059384</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="F16" t="n">
-        <v>244.3205328059384</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="G16" t="n">
-        <v>244.3205328059384</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I16" t="n">
         <v>96.27988370916803</v>
@@ -5439,49 +5439,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T16" t="n">
-        <v>1726.150625561384</v>
+        <v>1535.143853057279</v>
       </c>
       <c r="U16" t="n">
-        <v>1437.036571801661</v>
+        <v>1246.029799297557</v>
       </c>
       <c r="V16" t="n">
-        <v>1182.352083595775</v>
+        <v>1246.029799297557</v>
       </c>
       <c r="W16" t="n">
-        <v>892.9349135588138</v>
+        <v>956.6126292605959</v>
       </c>
       <c r="X16" t="n">
-        <v>892.9349135588138</v>
+        <v>728.6230783625786</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.9349135588138</v>
+        <v>728.6230783625786</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>873.6995032767284</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H17" t="n">
         <v>155.9037347524499</v>
@@ -5515,22 +5515,22 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J17" t="n">
-        <v>414.5309736026616</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K17" t="n">
-        <v>691.3477050708273</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L17" t="n">
         <v>1485.149702529767</v>
       </c>
       <c r="M17" t="n">
-        <v>2385.013919446187</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N17" t="n">
-        <v>3284.806882625577</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O17" t="n">
-        <v>4089.268224800765</v>
+        <v>3934.317264262454</v>
       </c>
       <c r="P17" t="n">
         <v>4583.232025030505</v>
@@ -5585,7 +5585,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G18" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H18" t="n">
         <v>113.4818523776181</v>
@@ -5594,16 +5594,16 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J18" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K18" t="n">
-        <v>505.0170019625157</v>
+        <v>505.0170019625147</v>
       </c>
       <c r="L18" t="n">
-        <v>819.655498224686</v>
+        <v>819.6554982246851</v>
       </c>
       <c r="M18" t="n">
-        <v>1206.180650995793</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N18" t="n">
         <v>1617.34461933501</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.27988370916803</v>
+        <v>776.8145067376224</v>
       </c>
       <c r="C19" t="n">
-        <v>96.27988370916803</v>
+        <v>607.8783238097155</v>
       </c>
       <c r="D19" t="n">
-        <v>96.27988370916803</v>
+        <v>607.8783238097155</v>
       </c>
       <c r="E19" t="n">
-        <v>96.27988370916803</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="F19" t="n">
-        <v>96.27988370916803</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27988370916803</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I19" t="n">
         <v>96.27988370916803</v>
@@ -5676,49 +5676,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R19" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S19" t="n">
-        <v>1562.526680460522</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T19" t="n">
-        <v>1339.883759009726</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="U19" t="n">
-        <v>1050.769705250003</v>
+        <v>1468.672720748353</v>
       </c>
       <c r="V19" t="n">
-        <v>796.0852170441166</v>
+        <v>1468.672720748353</v>
       </c>
       <c r="W19" t="n">
-        <v>506.668047007156</v>
+        <v>1179.255550711392</v>
       </c>
       <c r="X19" t="n">
-        <v>278.6784961091386</v>
+        <v>1179.255550711392</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.27988370916803</v>
+        <v>958.4629715678622</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.701876211743</v>
       </c>
       <c r="C20" t="n">
         <v>2028.739359271331</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E20" t="n">
         <v>1284.685408066336</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767288</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H20" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I20" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1253245823086</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K20" t="n">
-        <v>536.3967445325156</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L20" t="n">
-        <v>1330.198741991455</v>
+        <v>1750.520546103782</v>
       </c>
       <c r="M20" t="n">
-        <v>2230.062958907875</v>
+        <v>2650.384763020203</v>
       </c>
       <c r="N20" t="n">
-        <v>3129.855922087265</v>
+        <v>3550.177726199592</v>
       </c>
       <c r="O20" t="n">
-        <v>3934.317264262454</v>
+        <v>3977.646888924663</v>
       </c>
       <c r="P20" t="n">
-        <v>4583.232025030505</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R20" t="n">
         <v>4813.994185458401</v>
@@ -5782,22 +5782,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G21" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H21" t="n">
         <v>113.4818523776181</v>
@@ -5831,28 +5831,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J21" t="n">
-        <v>167.304547941494</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K21" t="n">
-        <v>366.8518364815405</v>
+        <v>505.0170019625147</v>
       </c>
       <c r="L21" t="n">
-        <v>681.4903327437107</v>
+        <v>819.6554982246851</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.015485514818</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N21" t="n">
-        <v>1479.179453854035</v>
+        <v>1617.34461933501</v>
       </c>
       <c r="O21" t="n">
-        <v>1893.9963654885</v>
+        <v>1971.259527765342</v>
       </c>
       <c r="P21" t="n">
-        <v>2473.989355903587</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q21" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R21" t="n">
         <v>2601.025026013057</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.7218423096012</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C22" t="n">
-        <v>515.7218423096012</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D22" t="n">
-        <v>515.7218423096012</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E22" t="n">
-        <v>515.7218423096012</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F22" t="n">
-        <v>515.7218423096012</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G22" t="n">
-        <v>347.8139127859469</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H22" t="n">
-        <v>199.7732636891765</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I22" t="n">
         <v>96.27988370916803</v>
@@ -5913,49 +5913,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R22" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S22" t="n">
-        <v>1757.786774508074</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T22" t="n">
-        <v>1535.143853057278</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U22" t="n">
-        <v>1246.029799297556</v>
+        <v>1050.769705250004</v>
       </c>
       <c r="V22" t="n">
-        <v>991.3453110916688</v>
+        <v>796.0852170441175</v>
       </c>
       <c r="W22" t="n">
-        <v>701.9281410547082</v>
+        <v>506.6680470071569</v>
       </c>
       <c r="X22" t="n">
-        <v>515.7218423096012</v>
+        <v>278.6784961091395</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.7218423096012</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.701876211741</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6995032767286</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H23" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I23" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J23" t="n">
-        <v>414.5309736026616</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K23" t="n">
-        <v>1012.25166351628</v>
+        <v>854.9774656222826</v>
       </c>
       <c r="L23" t="n">
-        <v>1806.05366097522</v>
+        <v>1648.779463081222</v>
       </c>
       <c r="M23" t="n">
-        <v>2260.899479733736</v>
+        <v>2548.643679997643</v>
       </c>
       <c r="N23" t="n">
-        <v>2854.604825659707</v>
+        <v>3448.436643177032</v>
       </c>
       <c r="O23" t="n">
-        <v>3659.066167834896</v>
+        <v>4252.897985352221</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.980928602947</v>
+        <v>4583.232025030505</v>
       </c>
       <c r="Q23" t="n">
-        <v>4718.067129459338</v>
+        <v>4783.12638513359</v>
       </c>
       <c r="R23" t="n">
         <v>4813.994185458401</v>
@@ -6019,22 +6019,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G24" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H24" t="n">
         <v>113.4818523776181</v>
@@ -6068,28 +6068,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K24" t="n">
-        <v>535.0554657807202</v>
+        <v>505.0170019625147</v>
       </c>
       <c r="L24" t="n">
-        <v>849.6939620428905</v>
+        <v>819.6554982246851</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.219114813997</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.383083153215</v>
+        <v>1617.34461933501</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.297991583547</v>
+        <v>1971.259527765342</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.012841045097</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q24" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R24" t="n">
         <v>2601.025026013057</v>
@@ -6150,40 +6150,40 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.786774508074</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.526680460522</v>
+        <v>1493.151941997361</v>
       </c>
       <c r="T25" t="n">
-        <v>1339.883759009726</v>
+        <v>1270.509020546564</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.769705250003</v>
+        <v>981.394966786842</v>
       </c>
       <c r="V25" t="n">
-        <v>1016.127648617916</v>
+        <v>726.7104785809552</v>
       </c>
       <c r="W25" t="n">
         <v>726.7104785809552</v>
@@ -6208,55 +6208,55 @@
         <v>2028.739359271331</v>
       </c>
       <c r="D26" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664581</v>
       </c>
       <c r="E26" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066337</v>
       </c>
       <c r="F26" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767286</v>
       </c>
       <c r="G26" t="n">
-        <v>458.1698336863381</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H26" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I26" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J26" t="n">
         <v>414.5309736026617</v>
       </c>
       <c r="K26" t="n">
-        <v>691.3477050708274</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L26" t="n">
-        <v>1485.149702529767</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M26" t="n">
-        <v>2385.013919446187</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N26" t="n">
-        <v>3284.806882625577</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O26" t="n">
-        <v>4089.268224800765</v>
+        <v>3659.066167834895</v>
       </c>
       <c r="P26" t="n">
-        <v>4419.602264479049</v>
+        <v>4307.980928602946</v>
       </c>
       <c r="Q26" t="n">
-        <v>4718.067129459339</v>
+        <v>4718.067129459337</v>
       </c>
       <c r="R26" t="n">
-        <v>4813.994185458402</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S26" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T26" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U26" t="n">
         <v>4231.738349126441</v>
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>972.1135818748975</v>
+        <v>972.1135818748972</v>
       </c>
       <c r="C27" t="n">
-        <v>797.6605525937705</v>
+        <v>797.6605525937703</v>
       </c>
       <c r="D27" t="n">
-        <v>648.7261429325192</v>
+        <v>648.726142932519</v>
       </c>
       <c r="E27" t="n">
-        <v>489.4886879270637</v>
+        <v>489.4886879270636</v>
       </c>
       <c r="F27" t="n">
         <v>342.9541299539486</v>
       </c>
       <c r="G27" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H27" t="n">
         <v>113.4818523776181</v>
       </c>
       <c r="I27" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J27" t="n">
         <v>292.1346729284987</v>
       </c>
       <c r="K27" t="n">
-        <v>505.0170019625157</v>
+        <v>505.0170019625147</v>
       </c>
       <c r="L27" t="n">
-        <v>819.655498224686</v>
+        <v>819.6554982246851</v>
       </c>
       <c r="M27" t="n">
-        <v>1206.180650995793</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N27" t="n">
         <v>1617.34461933501</v>
@@ -6341,7 +6341,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V27" t="n">
-        <v>1810.178074593654</v>
+        <v>1810.178074593653</v>
       </c>
       <c r="W27" t="n">
         <v>1555.940717865452</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="C28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="D28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="E28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="F28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="G28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="H28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I28" t="n">
-        <v>96.27988370916805</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J28" t="n">
         <v>127.1909995926188</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L28" t="n">
-        <v>594.4991583642274</v>
+        <v>594.4991583642275</v>
       </c>
       <c r="M28" t="n">
-        <v>907.1467298601158</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N28" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O28" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P28" t="n">
         <v>1697.008454575987</v>
@@ -6411,25 +6411,25 @@
         <v>1658.734594762381</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.474500714829</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T28" t="n">
-        <v>1240.831579264032</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U28" t="n">
-        <v>1240.831579264032</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V28" t="n">
-        <v>986.1470910581455</v>
+        <v>834.479183787676</v>
       </c>
       <c r="W28" t="n">
-        <v>696.729921021185</v>
+        <v>545.0620137507154</v>
       </c>
       <c r="X28" t="n">
-        <v>468.7403701231676</v>
+        <v>317.0724628526981</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.9477909796375</v>
+        <v>96.279883709168</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>873.6995032767284</v>
       </c>
       <c r="G29" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H29" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I29" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J29" t="n">
-        <v>247.1253245823086</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K29" t="n">
-        <v>844.8460144959274</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L29" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M29" t="n">
-        <v>2538.512228871287</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N29" t="n">
-        <v>3438.305192050677</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O29" t="n">
-        <v>4242.766534225866</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P29" t="n">
-        <v>4583.232025030505</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q29" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R29" t="n">
         <v>4813.994185458401</v>
@@ -6493,7 +6493,7 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T29" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U29" t="n">
         <v>4231.73834912644</v>
@@ -6533,7 +6533,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G30" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H30" t="n">
         <v>113.4818523776181</v>
@@ -6542,19 +6542,19 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J30" t="n">
-        <v>167.304547941494</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K30" t="n">
-        <v>535.0554657807202</v>
+        <v>535.0554657807191</v>
       </c>
       <c r="L30" t="n">
-        <v>849.6939620428905</v>
+        <v>849.6939620428896</v>
       </c>
       <c r="M30" t="n">
         <v>1236.219114813997</v>
       </c>
       <c r="N30" t="n">
-        <v>1647.383083153215</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O30" t="n">
         <v>2001.297991583547</v>
@@ -6624,46 +6624,46 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L31" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M31" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N31" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O31" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q31" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R31" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S31" t="n">
-        <v>1562.526680460522</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T31" t="n">
-        <v>1339.883759009726</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U31" t="n">
-        <v>1050.769705250003</v>
+        <v>1050.769705250004</v>
       </c>
       <c r="V31" t="n">
-        <v>796.0852170441166</v>
+        <v>796.0852170441175</v>
       </c>
       <c r="W31" t="n">
-        <v>506.668047007156</v>
+        <v>506.6680470071569</v>
       </c>
       <c r="X31" t="n">
-        <v>278.6784961091386</v>
+        <v>278.6784961091395</v>
       </c>
       <c r="Y31" t="n">
         <v>96.27988370916803</v>
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.701876211743</v>
+        <v>2397.701876211741</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.739359271332</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D32" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F32" t="n">
-        <v>873.6995032767293</v>
+        <v>873.6995032767281</v>
       </c>
       <c r="G32" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H32" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I32" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J32" t="n">
-        <v>247.1253245823086</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K32" t="n">
-        <v>844.8460144959274</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L32" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M32" t="n">
-        <v>2538.512228871287</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N32" t="n">
-        <v>3438.305192050677</v>
+        <v>3160.692442913126</v>
       </c>
       <c r="O32" t="n">
-        <v>4242.766534225866</v>
+        <v>3965.153785088316</v>
       </c>
       <c r="P32" t="n">
-        <v>4583.232025030505</v>
+        <v>4307.980928602946</v>
       </c>
       <c r="Q32" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459337</v>
       </c>
       <c r="R32" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S32" t="n">
         <v>4693.284629101619</v>
@@ -6733,19 +6733,19 @@
         <v>4485.305403407435</v>
       </c>
       <c r="U32" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X32" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y32" t="n">
-        <v>2784.301716275865</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>972.1135818748975</v>
+        <v>972.1135818748972</v>
       </c>
       <c r="C33" t="n">
-        <v>797.6605525937705</v>
+        <v>797.6605525937703</v>
       </c>
       <c r="D33" t="n">
-        <v>648.7261429325192</v>
+        <v>648.726142932519</v>
       </c>
       <c r="E33" t="n">
-        <v>489.4886879270637</v>
+        <v>489.4886879270636</v>
       </c>
       <c r="F33" t="n">
         <v>342.9541299539486</v>
       </c>
       <c r="G33" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H33" t="n">
         <v>113.4818523776181</v>
       </c>
       <c r="I33" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J33" t="n">
         <v>292.1346729284987</v>
       </c>
       <c r="K33" t="n">
-        <v>505.0170019625157</v>
+        <v>505.0170019625147</v>
       </c>
       <c r="L33" t="n">
-        <v>819.655498224686</v>
+        <v>819.6554982246851</v>
       </c>
       <c r="M33" t="n">
-        <v>1206.180650995793</v>
+        <v>1206.180650995792</v>
       </c>
       <c r="N33" t="n">
         <v>1617.34461933501</v>
@@ -6815,7 +6815,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V33" t="n">
-        <v>1810.178074593654</v>
+        <v>1810.178074593653</v>
       </c>
       <c r="W33" t="n">
         <v>1555.940717865452</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.27988370916803</v>
+        <v>320.9838143552849</v>
       </c>
       <c r="C34" t="n">
-        <v>96.27988370916803</v>
+        <v>152.047631427378</v>
       </c>
       <c r="D34" t="n">
-        <v>96.27988370916803</v>
+        <v>152.047631427378</v>
       </c>
       <c r="E34" t="n">
-        <v>96.27988370916803</v>
+        <v>152.047631427378</v>
       </c>
       <c r="F34" t="n">
-        <v>96.27988370916803</v>
+        <v>152.047631427378</v>
       </c>
       <c r="G34" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="H34" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I34" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J34" t="n">
         <v>127.1909995926188</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L34" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642275</v>
       </c>
       <c r="M34" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N34" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O34" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q34" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R34" t="n">
         <v>1658.734594762381</v>
       </c>
       <c r="S34" t="n">
-        <v>1463.474500714828</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.509020546564</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U34" t="n">
-        <v>981.394966786842</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="V34" t="n">
-        <v>726.7104785809552</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="W34" t="n">
-        <v>726.7104785809552</v>
+        <v>951.4144092270722</v>
       </c>
       <c r="X34" t="n">
-        <v>498.7209276829378</v>
+        <v>723.4248583290548</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.9283485394078</v>
+        <v>502.6322791855247</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.70187621174</v>
       </c>
       <c r="C35" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271329</v>
       </c>
       <c r="D35" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E35" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F35" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767272</v>
       </c>
       <c r="G35" t="n">
-        <v>458.1698336863381</v>
+        <v>458.1698336863374</v>
       </c>
       <c r="H35" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I35" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J35" t="n">
-        <v>414.5309736026616</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K35" t="n">
-        <v>1012.25166351628</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L35" t="n">
-        <v>1806.05366097522</v>
+        <v>1485.149702529767</v>
       </c>
       <c r="M35" t="n">
-        <v>2705.91787789164</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N35" t="n">
-        <v>3605.71084107103</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O35" t="n">
-        <v>4252.897985352221</v>
+        <v>3712.276045350649</v>
       </c>
       <c r="P35" t="n">
-        <v>4583.232025030505</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q35" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R35" t="n">
         <v>4813.994185458401</v>
@@ -6967,22 +6967,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T35" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407434</v>
       </c>
       <c r="U35" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.738349126439</v>
       </c>
       <c r="V35" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782868</v>
       </c>
       <c r="W35" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512754</v>
       </c>
       <c r="X35" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251674</v>
       </c>
       <c r="Y35" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275862</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G36" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H36" t="n">
         <v>113.4818523776181</v>
@@ -7016,28 +7016,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J36" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K36" t="n">
-        <v>491.6819614685453</v>
+        <v>535.0554657807191</v>
       </c>
       <c r="L36" t="n">
-        <v>806.3204577307156</v>
+        <v>849.6939620428896</v>
       </c>
       <c r="M36" t="n">
-        <v>1192.845610501822</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N36" t="n">
-        <v>1604.00957884104</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O36" t="n">
-        <v>1957.924487271372</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P36" t="n">
-        <v>2235.974377226892</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q36" t="n">
-        <v>2570.986562194853</v>
+        <v>2601.025026013057</v>
       </c>
       <c r="R36" t="n">
         <v>2601.025026013057</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.3327060494107</v>
+        <v>502.935395462763</v>
       </c>
       <c r="C37" t="n">
-        <v>246.3965231215038</v>
+        <v>333.9992125348562</v>
       </c>
       <c r="D37" t="n">
-        <v>96.27988370916803</v>
+        <v>333.9992125348562</v>
       </c>
       <c r="E37" t="n">
-        <v>96.27988370916803</v>
+        <v>333.9992125348562</v>
       </c>
       <c r="F37" t="n">
-        <v>96.27988370916803</v>
+        <v>187.1092650369458</v>
       </c>
       <c r="G37" t="n">
-        <v>96.27988370916803</v>
+        <v>187.1092650369458</v>
       </c>
       <c r="H37" t="n">
-        <v>96.27988370916803</v>
+        <v>187.1092650369458</v>
       </c>
       <c r="I37" t="n">
         <v>96.27988370916803</v>
@@ -7098,49 +7098,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L37" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M37" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N37" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O37" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q37" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R37" t="n">
-        <v>1691.983918646307</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S37" t="n">
-        <v>1691.983918646307</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T37" t="n">
-        <v>1469.340997195511</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U37" t="n">
-        <v>1180.226943435788</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="V37" t="n">
-        <v>925.5424552299014</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="W37" t="n">
-        <v>636.1252851929409</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="X37" t="n">
-        <v>636.1252851929409</v>
+        <v>723.7279746062932</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.3327060494107</v>
+        <v>502.935395462763</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C38" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D38" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E38" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F38" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G38" t="n">
-        <v>458.1698336863374</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H38" t="n">
         <v>155.9037347524499</v>
@@ -7174,28 +7174,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J38" t="n">
-        <v>247.1253245823086</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K38" t="n">
-        <v>771.223301937114</v>
+        <v>956.7185486448425</v>
       </c>
       <c r="L38" t="n">
-        <v>1565.025299396053</v>
+        <v>1750.520546103782</v>
       </c>
       <c r="M38" t="n">
-        <v>2019.87111815457</v>
+        <v>2650.384763020203</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.664081333959</v>
+        <v>3550.177726199592</v>
       </c>
       <c r="O38" t="n">
-        <v>3724.125423509148</v>
+        <v>3977.646888924663</v>
       </c>
       <c r="P38" t="n">
-        <v>4373.040184277199</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q38" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R38" t="n">
         <v>4813.994185458401</v>
@@ -7204,22 +7204,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T38" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U38" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V38" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W38" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X38" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y38" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G39" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H39" t="n">
         <v>113.4818523776181</v>
@@ -7253,28 +7253,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J39" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K39" t="n">
-        <v>505.0170019625157</v>
+        <v>535.0554657807191</v>
       </c>
       <c r="L39" t="n">
-        <v>819.655498224686</v>
+        <v>849.6939620428896</v>
       </c>
       <c r="M39" t="n">
-        <v>1206.180650995793</v>
+        <v>1236.219114813997</v>
       </c>
       <c r="N39" t="n">
-        <v>1617.34461933501</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O39" t="n">
-        <v>1971.259527765342</v>
+        <v>2001.297991583547</v>
       </c>
       <c r="P39" t="n">
-        <v>2235.974377226892</v>
+        <v>2266.012841045097</v>
       </c>
       <c r="Q39" t="n">
-        <v>2570.986562194853</v>
+        <v>2601.025026013057</v>
       </c>
       <c r="R39" t="n">
         <v>2601.025026013057</v>
@@ -7335,49 +7335,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L40" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M40" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N40" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O40" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q40" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R40" t="n">
-        <v>1658.734594762381</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S40" t="n">
-        <v>1463.474500714828</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T40" t="n">
-        <v>1240.831579264032</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U40" t="n">
-        <v>951.7175255043096</v>
+        <v>1050.769705250004</v>
       </c>
       <c r="V40" t="n">
-        <v>697.0330372984228</v>
+        <v>796.0852170441175</v>
       </c>
       <c r="W40" t="n">
-        <v>407.6158672614621</v>
+        <v>506.6680470071569</v>
       </c>
       <c r="X40" t="n">
-        <v>179.6263163634448</v>
+        <v>278.6784961091395</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.6263163634448</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.701876211741</v>
       </c>
       <c r="C41" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D41" t="n">
         <v>1670.47366066458</v>
@@ -7399,10 +7399,10 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F41" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G41" t="n">
-        <v>458.1698336863381</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H41" t="n">
         <v>155.9037347524499</v>
@@ -7411,19 +7411,19 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J41" t="n">
-        <v>414.5309736026616</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K41" t="n">
-        <v>1012.25166351628</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L41" t="n">
         <v>1806.05366097522</v>
       </c>
       <c r="M41" t="n">
-        <v>2260.899479733736</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N41" t="n">
-        <v>2854.604825659707</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O41" t="n">
         <v>3659.066167834896</v>
@@ -7441,22 +7441,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T41" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U41" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V41" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W41" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X41" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y41" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G42" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H42" t="n">
         <v>113.4818523776181</v>
@@ -7490,28 +7490,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J42" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K42" t="n">
-        <v>743.031980639211</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L42" t="n">
-        <v>1057.670476901381</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.195629672488</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N42" t="n">
-        <v>1855.359598011706</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O42" t="n">
-        <v>2209.274506442038</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P42" t="n">
-        <v>2473.989355903587</v>
+        <v>2235.974377226892</v>
       </c>
       <c r="Q42" t="n">
-        <v>2601.025026013057</v>
+        <v>2570.986562194853</v>
       </c>
       <c r="R42" t="n">
         <v>2601.025026013057</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="C43" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="D43" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="E43" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="F43" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G43" t="n">
         <v>96.27988370916803</v>
@@ -7572,49 +7572,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L43" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M43" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N43" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O43" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q43" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R43" t="n">
-        <v>1757.786774508074</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S43" t="n">
-        <v>1562.526680460522</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="T43" t="n">
-        <v>1339.883759009726</v>
+        <v>1436.091673311585</v>
       </c>
       <c r="U43" t="n">
-        <v>1050.769705250003</v>
+        <v>1146.977619551863</v>
       </c>
       <c r="V43" t="n">
-        <v>796.0852170441166</v>
+        <v>892.2931313459759</v>
       </c>
       <c r="W43" t="n">
-        <v>506.668047007156</v>
+        <v>602.8759613090153</v>
       </c>
       <c r="X43" t="n">
-        <v>278.6784961091386</v>
+        <v>374.886410410998</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.27988370916803</v>
+        <v>264.1878132328224</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C44" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D44" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E44" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F44" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G44" t="n">
-        <v>458.1698336863374</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H44" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524499</v>
       </c>
       <c r="I44" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J44" t="n">
-        <v>247.1253245823086</v>
+        <v>247.1253245823087</v>
       </c>
       <c r="K44" t="n">
-        <v>523.9420560504743</v>
+        <v>523.9420560504745</v>
       </c>
       <c r="L44" t="n">
         <v>1317.744053509414</v>
       </c>
       <c r="M44" t="n">
-        <v>1954.811862480317</v>
+        <v>2165.003703233623</v>
       </c>
       <c r="N44" t="n">
-        <v>2854.604825659707</v>
+        <v>3064.796666413012</v>
       </c>
       <c r="O44" t="n">
-        <v>3659.066167834896</v>
+        <v>3869.258008588201</v>
       </c>
       <c r="P44" t="n">
-        <v>4307.980928602947</v>
+        <v>4518.172769356253</v>
       </c>
       <c r="Q44" t="n">
         <v>4718.067129459338</v>
@@ -7678,22 +7678,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T44" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U44" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V44" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W44" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X44" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y44" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G45" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H45" t="n">
         <v>113.4818523776181</v>
@@ -7727,22 +7727,22 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J45" t="n">
-        <v>292.1346729284987</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K45" t="n">
-        <v>505.0170019625157</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L45" t="n">
-        <v>819.655498224686</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M45" t="n">
-        <v>1206.180650995793</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N45" t="n">
-        <v>1617.34461933501</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O45" t="n">
-        <v>1971.259527765342</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P45" t="n">
         <v>2235.974377226892</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C46" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D46" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E46" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F46" t="n">
-        <v>264.1878132328224</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G46" t="n">
         <v>96.27988370916803</v>
@@ -7809,49 +7809,49 @@
         <v>127.1909995926188</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8242952223058</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L46" t="n">
-        <v>594.4991583642272</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M46" t="n">
-        <v>907.1467298601156</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O46" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.008454575986</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q46" t="n">
-        <v>1757.786774508074</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R46" t="n">
-        <v>1658.734594762381</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S46" t="n">
-        <v>1463.474500714828</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T46" t="n">
-        <v>1240.831579264032</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U46" t="n">
-        <v>955.1794189735803</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V46" t="n">
-        <v>700.4949307676934</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W46" t="n">
-        <v>411.0777607307327</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X46" t="n">
-        <v>411.0777607307327</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y46" t="n">
-        <v>411.0777607307327</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>99.56616654262911</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>128.1675130448948</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>13.46973787269738</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>128.1675130448948</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.81162051734711</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13.46973787269741</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>224.2840595068735</v>
       </c>
       <c r="P17" t="n">
-        <v>165.2825864156121</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>13.46973787269738</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>12.58049341620335</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>361.5671591247552</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,16 +9415,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>61.51717495366933</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>15.17978716666985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>165.2825864156111</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>128.1675130448949</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>43.81162051734833</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.17978716666985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448924</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>99.56616654263027</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>13.46973787269738</v>
+        <v>13.46973787269616</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,22 +10120,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>10.23378901652057</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>169.9026558577572</v>
+        <v>43.81162051734711</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>15.17978716666985</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>10.23378901652057</v>
+        <v>12.61929680439079</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>13.46973787269738</v>
+        <v>13.46973787269616</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10600,16 +10600,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>221.9373551071926</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>268.0513571454691</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>43.81162051734711</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>13.46973787269741</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>249.779036249131</v>
+        <v>268.0513571454695</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>13.46973787269738</v>
+        <v>43.81162051734711</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>128.1675130448949</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>253.8889082531977</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>15.17978716666985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>184.0626163761491</v>
+        <v>396.3776070360527</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>13.46973787269738</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>13.4697378726961</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.2716848446571</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>92.8540780463797</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06165794823696</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>118.6932003779122</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06165794823696</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S16" t="n">
         <v>193.3074931070767</v>
       </c>
       <c r="T16" t="n">
-        <v>189.0967047790647</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520985</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>55.19904596145602</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06165794823696</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.01002707612392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06165794823696</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>41.36541963138123</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>38.01002707612301</v>
       </c>
     </row>
     <row r="23">
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06165794823696</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>29.38066686970626</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>217.8420072580613</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.68075198417253</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>136.0716850243599</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.06165794823696</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.01002707612392</v>
+        <v>38.01002707612301</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2288502284178</v>
+        <v>111.0187799873899</v>
       </c>
       <c r="H34" t="n">
         <v>146.5602426058027</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>29.38066686970711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.2288502284178</v>
@@ -25332,7 +25332,7 @@
         <v>146.5602426058027</v>
       </c>
       <c r="I37" t="n">
-        <v>102.4584461802083</v>
+        <v>12.53735866570835</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.91683064508734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.3190118542033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>38.01002707612301</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>146.5602426058027</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.06165794823696</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.01002707612392</v>
+        <v>108.993042145701</v>
       </c>
     </row>
     <row r="44">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H46" t="n">
         <v>146.5602426058027</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>38.01002707612321</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.427274534577919</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829378.9390213464</v>
+        <v>829378.9390213465</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>829378.9390213464</v>
+        <v>829378.9390213465</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>829378.9390213465</v>
+        <v>829378.9390213464</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829378.9390213464</v>
+        <v>829378.9390213465</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829378.9390213464</v>
+        <v>829378.9390213465</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>829378.9390213464</v>
+        <v>829378.9390213465</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829378.9390213464</v>
+        <v>829378.9390213465</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>591681.6942360855</v>
+      </c>
+      <c r="F2" t="n">
+        <v>591681.6942360852</v>
+      </c>
+      <c r="G2" t="n">
+        <v>591681.6942360855</v>
+      </c>
+      <c r="H2" t="n">
+        <v>591681.6942360847</v>
+      </c>
+      <c r="I2" t="n">
+        <v>591681.6942360849</v>
+      </c>
+      <c r="J2" t="n">
+        <v>591681.6942360849</v>
+      </c>
+      <c r="K2" t="n">
         <v>591681.6942360851</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>591681.6942360848</v>
+      </c>
+      <c r="M2" t="n">
+        <v>591681.6942360849</v>
+      </c>
+      <c r="N2" t="n">
         <v>591681.6942360853</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>591681.6942360852</v>
       </c>
-      <c r="H2" t="n">
-        <v>591681.6942360855</v>
-      </c>
-      <c r="I2" t="n">
-        <v>591681.6942360851</v>
-      </c>
-      <c r="J2" t="n">
-        <v>591681.6942360853</v>
-      </c>
-      <c r="K2" t="n">
-        <v>591681.6942360854</v>
-      </c>
-      <c r="L2" t="n">
-        <v>591681.6942360851</v>
-      </c>
-      <c r="M2" t="n">
-        <v>591681.6942360853</v>
-      </c>
-      <c r="N2" t="n">
-        <v>591681.6942360852</v>
-      </c>
-      <c r="O2" t="n">
-        <v>591681.6942360855</v>
-      </c>
       <c r="P2" t="n">
-        <v>591681.6942360855</v>
+        <v>591681.6942360848</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>239854.9269027757</v>
+        <v>239854.9269027758</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348888.7615889286</v>
+        <v>349690.4498666002</v>
       </c>
       <c r="C4" t="n">
-        <v>348888.7615889286</v>
+        <v>349690.4498666001</v>
       </c>
       <c r="D4" t="n">
-        <v>348888.7615889286</v>
+        <v>349690.4498666001</v>
       </c>
       <c r="E4" t="n">
-        <v>42967.06090453039</v>
+        <v>43451.73420399152</v>
       </c>
       <c r="F4" t="n">
-        <v>42967.06090453039</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="G4" t="n">
-        <v>42967.06090453043</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="H4" t="n">
-        <v>42967.06090453039</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="I4" t="n">
-        <v>42967.06090453044</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="J4" t="n">
-        <v>42967.06090453043</v>
+        <v>43451.73420399149</v>
       </c>
       <c r="K4" t="n">
-        <v>42967.06090453042</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="L4" t="n">
-        <v>42967.06090453042</v>
+        <v>43451.73420399149</v>
       </c>
       <c r="M4" t="n">
-        <v>42967.06090453043</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="N4" t="n">
-        <v>42967.06090453043</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="O4" t="n">
-        <v>42967.06090453044</v>
+        <v>43451.73420399151</v>
       </c>
       <c r="P4" t="n">
-        <v>42967.06090453043</v>
+        <v>43451.73420399151</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>94475.25086559012</v>
       </c>
       <c r="J5" t="n">
-        <v>94475.25086559013</v>
+        <v>94475.25086559012</v>
       </c>
       <c r="K5" t="n">
         <v>94475.25086559012</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137841.8655139745</v>
+        <v>137040.177236303</v>
       </c>
       <c r="C6" t="n">
-        <v>218611.2970455222</v>
+        <v>217809.6087678503</v>
       </c>
       <c r="D6" t="n">
-        <v>218611.2970455218</v>
+        <v>217809.6087678505</v>
       </c>
       <c r="E6" t="n">
-        <v>-619010.4687004673</v>
+        <v>-618772.1530050646</v>
       </c>
       <c r="F6" t="n">
-        <v>453436.0613605606</v>
+        <v>453674.3770559632</v>
       </c>
       <c r="G6" t="n">
-        <v>453436.0613605604</v>
+        <v>453674.3770559635</v>
       </c>
       <c r="H6" t="n">
-        <v>453436.0613605608</v>
+        <v>453674.3770559627</v>
       </c>
       <c r="I6" t="n">
-        <v>453436.0613605602</v>
+        <v>453674.3770559629</v>
       </c>
       <c r="J6" t="n">
-        <v>390376.1187614541</v>
+        <v>390614.4344568568</v>
       </c>
       <c r="K6" t="n">
-        <v>453436.0613605606</v>
+        <v>453674.377055963</v>
       </c>
       <c r="L6" t="n">
-        <v>453436.0613605602</v>
+        <v>453674.3770559628</v>
       </c>
       <c r="M6" t="n">
-        <v>213581.1344577848</v>
+        <v>213819.4501531872</v>
       </c>
       <c r="N6" t="n">
-        <v>453436.0613605604</v>
+        <v>453674.3770559633</v>
       </c>
       <c r="O6" t="n">
-        <v>453436.0613605607</v>
+        <v>453674.3770559632</v>
       </c>
       <c r="P6" t="n">
-        <v>453436.0613605607</v>
+        <v>453674.3770559628</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="J3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="K3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="L3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="M3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="N3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="O3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="P3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1203.4985463646</v>
       </c>
       <c r="J4" t="n">
-        <v>1203.498546364601</v>
+        <v>1203.4985463646</v>
       </c>
       <c r="K4" t="n">
         <v>1203.4985463646</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863498</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.4842574869415</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2880590747468</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>168.158666233674</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,13 +27466,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>64.37595244487741</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15.25510347914738</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27593,13 +27593,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>363.7840648101837</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>159.5856446526967</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>134.6379453801438</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.5069787288446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>364.436345787192</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,19 +27909,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0743548999748</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>174.4843953884838</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>160.6599100313927</v>
       </c>
     </row>
     <row r="10">
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N11" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O11" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R12" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J13" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K13" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M13" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P13" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S13" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N14" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O14" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H15" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R15" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J16" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K16" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M16" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P16" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N17" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O17" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H18" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R18" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J19" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K19" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L19" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M19" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P19" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S19" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N20" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O20" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H21" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R21" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,43 +32627,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J22" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K22" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L22" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M22" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P22" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S22" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N23" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O23" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H24" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R24" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,43 +32864,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J25" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K25" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L25" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M25" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P25" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S25" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H26" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I26" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J26" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K26" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L26" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M26" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N26" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O26" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P26" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R26" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S26" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T26" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H27" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I27" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J27" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K27" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L27" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M27" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N27" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O27" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P27" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R27" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S27" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T27" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,43 +33101,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I28" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J28" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K28" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L28" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M28" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N28" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O28" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P28" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R28" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S28" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T28" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H29" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I29" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J29" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K29" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L29" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M29" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N29" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O29" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P29" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R29" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S29" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T29" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H30" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I30" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J30" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K30" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L30" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M30" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N30" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O30" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P30" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R30" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S30" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T30" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,43 +33338,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I31" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J31" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K31" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L31" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M31" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N31" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O31" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P31" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R31" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S31" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T31" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H32" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I32" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J32" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K32" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L32" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M32" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N32" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O32" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P32" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q32" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R32" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S32" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T32" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H33" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I33" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J33" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K33" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L33" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M33" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N33" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O33" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P33" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R33" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S33" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T33" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,43 +33575,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I34" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J34" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K34" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L34" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M34" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N34" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O34" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P34" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R34" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S34" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T34" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H35" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I35" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J35" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K35" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L35" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M35" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N35" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O35" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P35" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R35" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S35" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T35" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H36" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I36" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J36" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K36" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L36" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M36" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N36" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O36" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P36" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R36" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S36" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T36" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,43 +33812,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I37" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J37" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K37" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L37" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M37" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N37" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O37" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P37" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R37" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S37" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T37" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H38" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I38" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J38" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K38" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L38" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M38" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N38" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O38" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P38" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R38" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S38" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T38" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H39" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I39" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J39" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K39" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L39" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M39" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N39" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O39" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P39" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R39" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S39" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T39" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,43 +34049,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I40" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J40" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K40" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L40" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M40" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N40" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O40" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P40" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R40" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S40" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T40" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H41" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I41" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J41" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K41" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L41" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M41" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N41" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O41" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P41" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R41" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S41" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T41" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H42" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I42" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J42" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K42" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L42" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M42" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N42" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O42" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P42" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R42" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S42" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T42" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,43 +34286,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I43" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J43" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K43" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L43" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M43" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N43" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O43" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P43" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R43" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S43" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T43" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.928364620648639</v>
+        <v>3.928364620648641</v>
       </c>
       <c r="H44" t="n">
-        <v>40.23136417121789</v>
+        <v>40.2313641712179</v>
       </c>
       <c r="I44" t="n">
-        <v>151.4482770375568</v>
+        <v>151.4482770375569</v>
       </c>
       <c r="J44" t="n">
-        <v>333.4150367217778</v>
+        <v>333.4150367217779</v>
       </c>
       <c r="K44" t="n">
-        <v>499.7027111138348</v>
+        <v>499.7027111138349</v>
       </c>
       <c r="L44" t="n">
-        <v>619.9253998730107</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M44" t="n">
-        <v>689.7864541954709</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N44" t="n">
-        <v>700.947920173889</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O44" t="n">
-        <v>661.885244477314</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P44" t="n">
-        <v>564.9037429050506</v>
+        <v>564.9037429050508</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2191849280711</v>
+        <v>424.2191849280712</v>
       </c>
       <c r="R44" t="n">
-        <v>246.7651341018203</v>
+        <v>246.7651341018204</v>
       </c>
       <c r="S44" t="n">
-        <v>89.51760879303096</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T44" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3142691696518911</v>
+        <v>0.3142691696518912</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.101860372264979</v>
+        <v>2.10186037226498</v>
       </c>
       <c r="H45" t="n">
-        <v>20.29954622687493</v>
+        <v>20.29954622687494</v>
       </c>
       <c r="I45" t="n">
-        <v>72.36668386964951</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J45" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K45" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L45" t="n">
-        <v>456.3710426709552</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M45" t="n">
-        <v>532.5634811655606</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N45" t="n">
-        <v>546.6588518199167</v>
+        <v>546.6588518199168</v>
       </c>
       <c r="O45" t="n">
-        <v>500.0860509397294</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P45" t="n">
-        <v>401.3631442441783</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.3006327824559</v>
+        <v>268.300632782456</v>
       </c>
       <c r="R45" t="n">
         <v>130.4997167972941</v>
       </c>
       <c r="S45" t="n">
-        <v>39.04113454623763</v>
+        <v>39.04113454623764</v>
       </c>
       <c r="T45" t="n">
-        <v>8.471972289962785</v>
+        <v>8.471972289962787</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,43 +34523,43 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I46" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J46" t="n">
         <v>124.5825294938958</v>
       </c>
       <c r="K46" t="n">
-        <v>204.727366199304</v>
+        <v>204.7273661993041</v>
       </c>
       <c r="L46" t="n">
-        <v>261.9805435699076</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M46" t="n">
-        <v>276.221750811784</v>
+        <v>276.2217508117841</v>
       </c>
       <c r="N46" t="n">
-        <v>269.6538149634497</v>
+        <v>269.6538149634499</v>
       </c>
       <c r="O46" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P46" t="n">
-        <v>213.12150860059</v>
+        <v>213.1215086005901</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R46" t="n">
-        <v>79.23173342893253</v>
+        <v>79.23173342893256</v>
       </c>
       <c r="S46" t="n">
-        <v>30.7091049298956</v>
+        <v>30.70910492989561</v>
       </c>
       <c r="T46" t="n">
-        <v>7.529097191993184</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09611613436587058</v>
+        <v>0.0961161343658706</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K11" t="n">
-        <v>603.758272640019</v>
+        <v>379.1790266114835</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M11" t="n">
-        <v>587.607734013093</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N11" t="n">
-        <v>471.5348565772981</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P11" t="n">
-        <v>655.4694553212637</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2284857135263</v>
+        <v>201.9134950536217</v>
       </c>
       <c r="R11" t="n">
-        <v>96.89601616067065</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K12" t="n">
-        <v>215.0326555899162</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L12" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M12" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O12" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3887368298481</v>
+        <v>280.8584747025444</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R12" t="n">
-        <v>30.34188264465097</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K14" t="n">
-        <v>603.758272640019</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M14" t="n">
-        <v>587.607734013093</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N14" t="n">
-        <v>471.5348565772981</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P14" t="n">
-        <v>655.4694553212637</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.2284857135263</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R14" t="n">
-        <v>96.89601616067065</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5629177172188</v>
+        <v>245.374538234566</v>
       </c>
       <c r="L15" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O15" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P15" t="n">
-        <v>280.8584747025455</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R15" t="n">
-        <v>30.34188264465097</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6128600688542</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M17" t="n">
-        <v>908.9537544610307</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8817809892822</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5872143183726</v>
+        <v>656.071092562501</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9533335653932</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9134950536216</v>
+        <v>201.9134950536217</v>
       </c>
       <c r="R17" t="n">
-        <v>31.17959628768821</v>
+        <v>31.1795962876883</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K18" t="n">
-        <v>215.0326555899162</v>
+        <v>215.032655589915</v>
       </c>
       <c r="L18" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O18" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3887368298481</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R18" t="n">
-        <v>30.34188264465097</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3691321950915</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K20" t="n">
-        <v>292.1933534850576</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8201994534739</v>
+        <v>745.7261440277789</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9537544610307</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8817809892822</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5872143183726</v>
+        <v>431.7870330556275</v>
       </c>
       <c r="P20" t="n">
-        <v>655.4694553212637</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9134950536216</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17959628768821</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74208508315752</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K21" t="n">
-        <v>201.5629177172188</v>
+        <v>215.032655589915</v>
       </c>
       <c r="L21" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O21" t="n">
-        <v>419.0069814489543</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P21" t="n">
-        <v>585.8515054697853</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.3188586964344</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K23" t="n">
-        <v>603.758272640019</v>
+        <v>444.8954464844655</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M23" t="n">
-        <v>459.4402209681982</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N23" t="n">
-        <v>599.7023696221929</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P23" t="n">
-        <v>655.4694553212637</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.2284857135263</v>
+        <v>201.9134950536217</v>
       </c>
       <c r="R23" t="n">
-        <v>96.89601616067065</v>
+        <v>31.1795962876883</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K24" t="n">
-        <v>245.3745382345671</v>
+        <v>215.032655589915</v>
       </c>
       <c r="L24" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O24" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P24" t="n">
-        <v>267.3887368298481</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K26" t="n">
-        <v>279.6128600688542</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L26" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M26" t="n">
-        <v>908.9537544610307</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N26" t="n">
-        <v>908.8817809892822</v>
+        <v>599.7023696221906</v>
       </c>
       <c r="O26" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P26" t="n">
-        <v>333.6707471497811</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.4796615962518</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R26" t="n">
-        <v>96.89601616067065</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K27" t="n">
-        <v>215.0326555899162</v>
+        <v>215.0326555899151</v>
       </c>
       <c r="L27" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M27" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N27" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O27" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P27" t="n">
-        <v>267.3887368298481</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q27" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R27" t="n">
-        <v>30.34188264465097</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K28" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L28" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M28" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N28" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O28" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P28" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>152.3691321950915</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K29" t="n">
-        <v>603.758272640019</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L29" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M29" t="n">
-        <v>908.9537544610307</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N29" t="n">
-        <v>908.8817809892822</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O29" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P29" t="n">
-        <v>343.9045361663017</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.9134950536216</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R29" t="n">
-        <v>31.17959628768821</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>71.74208508315752</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K30" t="n">
-        <v>371.465573574976</v>
+        <v>245.374538234566</v>
       </c>
       <c r="L30" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M30" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N30" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O30" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P30" t="n">
-        <v>267.3887368298481</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q30" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K31" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L31" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M31" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N31" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O31" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P31" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>152.3691321950915</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K32" t="n">
-        <v>603.758272640019</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L32" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M32" t="n">
-        <v>908.9537544610307</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N32" t="n">
-        <v>908.8817809892822</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O32" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P32" t="n">
-        <v>343.9045361663017</v>
+        <v>346.290043954172</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.9134950536216</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R32" t="n">
-        <v>31.17959628768821</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K33" t="n">
-        <v>215.0326555899162</v>
+        <v>215.0326555899151</v>
       </c>
       <c r="L33" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M33" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N33" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O33" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P33" t="n">
-        <v>267.3887368298481</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q33" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R33" t="n">
-        <v>30.34188264465097</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K34" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L34" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M34" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N34" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O34" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P34" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K35" t="n">
-        <v>603.758272640019</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M35" t="n">
-        <v>908.9537544610307</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N35" t="n">
-        <v>908.8817809892822</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O35" t="n">
-        <v>653.7243881628199</v>
+        <v>431.7870330556275</v>
       </c>
       <c r="P35" t="n">
-        <v>333.6707471497811</v>
+        <v>601.7221042952503</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.9134950536216</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R35" t="n">
-        <v>31.17959628768821</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K36" t="n">
-        <v>201.5629177172188</v>
+        <v>245.374538234566</v>
       </c>
       <c r="L36" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M36" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N36" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O36" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P36" t="n">
-        <v>280.8584747025455</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q36" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R36" t="n">
-        <v>30.34188264465097</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K37" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L37" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M37" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N37" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O37" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P37" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>152.3691321950915</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K38" t="n">
-        <v>529.3918963179852</v>
+        <v>547.6642172143239</v>
       </c>
       <c r="L38" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M38" t="n">
-        <v>459.4402209681982</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N38" t="n">
-        <v>908.8817809892822</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O38" t="n">
-        <v>812.5872143183726</v>
+        <v>431.7870330556275</v>
       </c>
       <c r="P38" t="n">
-        <v>655.4694553212637</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.2284857135263</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R38" t="n">
-        <v>31.17959628768821</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K39" t="n">
-        <v>215.0326555899162</v>
+        <v>245.374538234566</v>
       </c>
       <c r="L39" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M39" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N39" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O39" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P39" t="n">
-        <v>267.3887368298481</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q39" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R39" t="n">
-        <v>30.34188264465097</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K40" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L40" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M40" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N40" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O40" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P40" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>321.4657473671652</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K41" t="n">
-        <v>603.758272640019</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L41" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M41" t="n">
-        <v>459.4402209681982</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N41" t="n">
-        <v>599.7023696221929</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O41" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P41" t="n">
-        <v>655.4694553212637</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.2284857135263</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R41" t="n">
-        <v>96.89601616067065</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K42" t="n">
-        <v>455.4518259704165</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L42" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M42" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N42" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O42" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P42" t="n">
-        <v>267.3887368298481</v>
+        <v>280.8584747025444</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.3188586964344</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K43" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L43" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M43" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N43" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O43" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P43" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>152.3691321950915</v>
+        <v>152.3691321950916</v>
       </c>
       <c r="K44" t="n">
-        <v>279.6128600688542</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L44" t="n">
-        <v>801.8201994534739</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M44" t="n">
-        <v>643.5028373443473</v>
+        <v>855.8178280042512</v>
       </c>
       <c r="N44" t="n">
-        <v>908.8817809892822</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O44" t="n">
-        <v>812.5872143183726</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P44" t="n">
-        <v>655.4694553212637</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.2284857135263</v>
+        <v>201.9134950536217</v>
       </c>
       <c r="R44" t="n">
-        <v>96.89601616067065</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>197.8331204235664</v>
       </c>
       <c r="K45" t="n">
-        <v>215.0326555899162</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L45" t="n">
-        <v>317.816662891081</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M45" t="n">
-        <v>390.4294472435423</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N45" t="n">
-        <v>415.3171397365834</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O45" t="n">
-        <v>357.489806495285</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P45" t="n">
-        <v>267.3887368298481</v>
+        <v>280.8584747025444</v>
       </c>
       <c r="Q45" t="n">
-        <v>338.3961464322835</v>
+        <v>338.3961464322836</v>
       </c>
       <c r="R45" t="n">
-        <v>30.34188264465097</v>
+        <v>30.34188264465099</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.22334937722299</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K46" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L46" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M46" t="n">
-        <v>315.8056277736246</v>
+        <v>315.8056277736247</v>
       </c>
       <c r="N46" t="n">
-        <v>313.7859873426784</v>
+        <v>313.7859873426785</v>
       </c>
       <c r="O46" t="n">
-        <v>273.6540707674654</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P46" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.39224235564443</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
